--- a/kristina bosakova/Занятие 5/09.04 testcase.xlsx
+++ b/kristina bosakova/Занятие 5/09.04 testcase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer-nitro\Desktop\Skillo_QA_2603\kristina bosakova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer-nitro\Desktop\Skillo_QA_2603\kristina bosakova\Занятие 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7272" windowHeight="6696"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7275" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -123,13 +123,91 @@
   </si>
   <si>
     <t>compared product characteristics</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Verify that user can add to cart one or more products at еди кой си online store</t>
+  </si>
+  <si>
+    <t>registration at the online store</t>
+  </si>
+  <si>
+    <t>visit URL</t>
+  </si>
+  <si>
+    <t>"url"</t>
+  </si>
+  <si>
+    <t>choose product category</t>
+  </si>
+  <si>
+    <t>choose one or more product and click "add to cart" button</t>
+  </si>
+  <si>
+    <t>a confirmation message appear "Product successfully added to your shopping cart"</t>
+  </si>
+  <si>
+    <t>the chosen products are shown with check out option</t>
+  </si>
+  <si>
+    <t>check the cart by clicking the "cart" button</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Test that user can add products to wishlist</t>
+  </si>
+  <si>
+    <t>click on "more" button on the product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a new page is open with more product information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on the "❤ Add to wishlist" button </t>
+  </si>
+  <si>
+    <t>a confirmation message appear "Added to your wishlist."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check user wishlist by clicking on user's name </t>
+  </si>
+  <si>
+    <t>click "❤ my wishlists"</t>
+  </si>
+  <si>
+    <t>products that are added in wishlist are shown</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>choose women dresses category</t>
+  </si>
+  <si>
+    <t>Verify that white color filtering works correctly in women dresses category</t>
+  </si>
+  <si>
+    <t>white women dresses are shown</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>only white women dresses are shown</t>
+  </si>
+  <si>
+    <t>ckeck the white box in the filter options</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +224,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,19 +550,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -482,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -490,7 +578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -498,12 +586,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -511,7 +599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -519,7 +607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -527,7 +615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -535,12 +623,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -548,12 +636,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -561,7 +649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,7 +657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -577,7 +665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -585,12 +673,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -598,12 +686,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -611,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -619,12 +707,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -632,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -640,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,7 +736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -656,7 +744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -664,12 +752,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -677,12 +765,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -690,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -698,12 +786,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -711,12 +799,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -724,12 +812,406 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
